--- a/Tourist Predict--A case of Shanghai/Data/上海旅游人数--上海旅游（百度指数-区分来源）.xlsx
+++ b/Tourist Predict--A case of Shanghai/Data/上海旅游人数--上海旅游（百度指数-区分来源）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuoXingYu\Source\Repos\Tourist_Predict--A-case-of-Shangahi\Tourist Predict--A case of Shanghai\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAF417E-F9F0-483C-AFFF-24736B6BD03B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F42516-37A1-4F42-9425-EE07E6A24F03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{6CA29D0B-BB74-4BB2-9BD3-C68CE967E1E6}"/>
   </bookViews>
@@ -577,7 +577,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B707EF3C-1A4B-43EF-8009-4DCCA76BF75D}">
   <dimension ref="A1:AG99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -688,7 +690,7 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>40544</v>
+        <v>40574</v>
       </c>
       <c r="B2">
         <v>854774</v>
@@ -789,7 +791,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>40575</v>
+        <v>40602</v>
       </c>
       <c r="B3">
         <v>707020</v>
@@ -890,7 +892,7 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>40603</v>
+        <v>40633</v>
       </c>
       <c r="B4">
         <v>1288661</v>
@@ -991,7 +993,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>40634</v>
+        <v>40663</v>
       </c>
       <c r="B5">
         <v>1891583</v>
@@ -1092,7 +1094,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>40664</v>
+        <v>40694</v>
       </c>
       <c r="B6">
         <v>2286453</v>
@@ -1193,7 +1195,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>40695</v>
+        <v>40724</v>
       </c>
       <c r="B7">
         <v>1470506</v>
@@ -1294,7 +1296,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>40725</v>
+        <v>40755</v>
       </c>
       <c r="B8">
         <v>1474029</v>
@@ -1395,7 +1397,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>40756</v>
+        <v>40786</v>
       </c>
       <c r="B9">
         <v>1217113</v>
@@ -1496,7 +1498,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>40787</v>
+        <v>40816</v>
       </c>
       <c r="B10">
         <v>1361770</v>
@@ -1597,7 +1599,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>40817</v>
+        <v>40847</v>
       </c>
       <c r="B11">
         <v>1791134</v>
@@ -1698,7 +1700,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>40848</v>
+        <v>40877</v>
       </c>
       <c r="B12">
         <v>1206479</v>
@@ -1799,7 +1801,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>40878</v>
+        <v>40908</v>
       </c>
       <c r="B13">
         <v>2831353</v>
@@ -1900,7 +1902,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>40909</v>
+        <v>40939</v>
       </c>
       <c r="B14">
         <v>846350</v>
@@ -2001,7 +2003,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>40940</v>
+        <v>40968</v>
       </c>
       <c r="B15">
         <v>907064</v>
@@ -2102,7 +2104,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>40969</v>
+        <v>40999</v>
       </c>
       <c r="B16">
         <v>1472153</v>
@@ -2203,7 +2205,7 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>41000</v>
+        <v>41029</v>
       </c>
       <c r="B17">
         <v>2096335</v>
@@ -2304,7 +2306,7 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>41030</v>
+        <v>41060</v>
       </c>
       <c r="B18">
         <v>2308918</v>
@@ -2405,7 +2407,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>41061</v>
+        <v>41090</v>
       </c>
       <c r="B19">
         <v>1857478</v>
@@ -2506,7 +2508,7 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>41091</v>
+        <v>41121</v>
       </c>
       <c r="B20">
         <v>1602420</v>
@@ -2607,7 +2609,7 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>41122</v>
+        <v>41152</v>
       </c>
       <c r="B21">
         <v>1344966</v>
@@ -2708,7 +2710,7 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>41153</v>
+        <v>41182</v>
       </c>
       <c r="B22">
         <v>1451590</v>
@@ -2809,7 +2811,7 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>41183</v>
+        <v>41213</v>
       </c>
       <c r="B23">
         <v>1840375</v>
@@ -2910,7 +2912,7 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>41214</v>
+        <v>41243</v>
       </c>
       <c r="B24">
         <v>2336300</v>
@@ -3011,7 +3013,7 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>41244</v>
+        <v>41274</v>
       </c>
       <c r="B25">
         <v>3066955</v>
@@ -3112,7 +3114,7 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>41275</v>
+        <v>41305</v>
       </c>
       <c r="B26">
         <v>1150427</v>
@@ -3213,7 +3215,7 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>41306</v>
+        <v>41333</v>
       </c>
       <c r="B27">
         <v>874641</v>
@@ -3314,7 +3316,7 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>41334</v>
+        <v>41364</v>
       </c>
       <c r="B28">
         <v>1283525</v>
@@ -3415,7 +3417,7 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>41365</v>
+        <v>41394</v>
       </c>
       <c r="B29">
         <v>2194319</v>
@@ -3516,7 +3518,7 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>41395</v>
+        <v>41425</v>
       </c>
       <c r="B30">
         <v>2090723</v>
@@ -3617,7 +3619,7 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>41426</v>
+        <v>41455</v>
       </c>
       <c r="B31">
         <v>1572068</v>
@@ -3718,7 +3720,7 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>41456</v>
+        <v>41486</v>
       </c>
       <c r="B32">
         <v>1291456</v>
@@ -3819,7 +3821,7 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>41487</v>
+        <v>41517</v>
       </c>
       <c r="B33">
         <v>1239271</v>
@@ -3920,7 +3922,7 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>41518</v>
+        <v>41547</v>
       </c>
       <c r="B34">
         <v>1292115</v>
@@ -4021,7 +4023,7 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>41548</v>
+        <v>41578</v>
       </c>
       <c r="B35">
         <v>1976355</v>
@@ -4122,7 +4124,7 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>41579</v>
+        <v>41608</v>
       </c>
       <c r="B36">
         <v>2334883</v>
@@ -4223,7 +4225,7 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>41609</v>
+        <v>41639</v>
       </c>
       <c r="B37">
         <v>1912409</v>
@@ -4324,7 +4326,7 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B38">
         <v>637184</v>
@@ -4425,7 +4427,7 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>41671</v>
+        <v>41698</v>
       </c>
       <c r="B39">
         <v>685001</v>
@@ -4526,7 +4528,7 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>41699</v>
+        <v>41729</v>
       </c>
       <c r="B40">
         <v>1003812</v>
@@ -4627,7 +4629,7 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B41">
         <v>1757727</v>
@@ -4728,7 +4730,7 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>41760</v>
+        <v>41790</v>
       </c>
       <c r="B42">
         <v>1796850</v>
@@ -4829,7 +4831,7 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>41791</v>
+        <v>41820</v>
       </c>
       <c r="B43">
         <v>1390893</v>
@@ -4930,7 +4932,7 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B44">
         <v>1098022</v>
@@ -5031,7 +5033,7 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>41852</v>
+        <v>41882</v>
       </c>
       <c r="B45">
         <v>1020903</v>
@@ -5132,7 +5134,7 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>41883</v>
+        <v>41912</v>
       </c>
       <c r="B46">
         <v>1230448</v>
@@ -5233,7 +5235,7 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B47">
         <v>1865507</v>
@@ -5334,7 +5336,7 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>41944</v>
+        <v>41973</v>
       </c>
       <c r="B48">
         <v>2125695</v>
@@ -5435,7 +5437,7 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>41974</v>
+        <v>42004</v>
       </c>
       <c r="B49">
         <v>1920603</v>
@@ -5536,7 +5538,7 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B50">
         <v>703098</v>
@@ -5637,7 +5639,7 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>42036</v>
+        <v>42063</v>
       </c>
       <c r="B51">
         <v>686392</v>
@@ -5738,7 +5740,7 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>42064</v>
+        <v>42094</v>
       </c>
       <c r="B52">
         <v>970104</v>
@@ -5839,7 +5841,7 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B53">
         <v>1797888</v>
@@ -5940,7 +5942,7 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>42125</v>
+        <v>42155</v>
       </c>
       <c r="B54">
         <v>2002268</v>
@@ -6041,7 +6043,7 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>42156</v>
+        <v>42185</v>
       </c>
       <c r="B55">
         <v>1619540</v>
@@ -6142,7 +6144,7 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B56">
         <v>1241395</v>
@@ -6243,7 +6245,7 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>42217</v>
+        <v>42247</v>
       </c>
       <c r="B57">
         <v>1428579</v>
@@ -6344,7 +6346,7 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>42248</v>
+        <v>42277</v>
       </c>
       <c r="B58">
         <v>1321971</v>
@@ -6445,7 +6447,7 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B59">
         <v>1766957</v>
@@ -6546,7 +6548,7 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>42309</v>
+        <v>42338</v>
       </c>
       <c r="B60">
         <v>2124053</v>
@@ -6647,7 +6649,7 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>42339</v>
+        <v>42369</v>
       </c>
       <c r="B61">
         <v>2242044</v>
@@ -6748,7 +6750,7 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B62">
         <v>870845</v>
@@ -6849,7 +6851,7 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>42401</v>
+        <v>42429</v>
       </c>
       <c r="B63">
         <v>688974</v>
@@ -6950,7 +6952,7 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>42430</v>
+        <v>42460</v>
       </c>
       <c r="B64">
         <v>1378302</v>
@@ -7051,7 +7053,7 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B65">
         <v>2478590</v>
@@ -7152,7 +7154,7 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>42491</v>
+        <v>42521</v>
       </c>
       <c r="B66">
         <v>1874363</v>
@@ -7253,7 +7255,7 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>42522</v>
+        <v>42551</v>
       </c>
       <c r="B67">
         <v>1776819</v>
@@ -7354,7 +7356,7 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B68">
         <v>1757031</v>
@@ -7455,7 +7457,7 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>42583</v>
+        <v>42613</v>
       </c>
       <c r="B69">
         <v>1956429</v>
@@ -7556,7 +7558,7 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>42614</v>
+        <v>42643</v>
       </c>
       <c r="B70">
         <v>1652020</v>
@@ -7657,7 +7659,7 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B71">
         <v>2227084</v>
@@ -7758,7 +7760,7 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>42675</v>
+        <v>42704</v>
       </c>
       <c r="B72">
         <v>2437869</v>
@@ -7859,7 +7861,7 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>42705</v>
+        <v>42735</v>
       </c>
       <c r="B73">
         <v>1971691</v>
@@ -7960,7 +7962,7 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B74">
         <v>970661</v>
@@ -8061,7 +8063,7 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>42767</v>
+        <v>42794</v>
       </c>
       <c r="B75">
         <v>1036442</v>
@@ -8162,7 +8164,7 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>42795</v>
+        <v>42825</v>
       </c>
       <c r="B76">
         <v>1575215</v>
@@ -8263,7 +8265,7 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B77">
         <v>2565422</v>
@@ -8364,7 +8366,7 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>42856</v>
+        <v>42886</v>
       </c>
       <c r="B78">
         <v>2291034</v>
@@ -8465,7 +8467,7 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>42887</v>
+        <v>42916</v>
       </c>
       <c r="B79">
         <v>2305688</v>
@@ -8566,7 +8568,7 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B80">
         <v>1832590</v>
@@ -8667,7 +8669,7 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>42948</v>
+        <v>42978</v>
       </c>
       <c r="B81">
         <v>2066679</v>
@@ -8768,7 +8770,7 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>42979</v>
+        <v>43008</v>
       </c>
       <c r="B82">
         <v>2216200</v>
@@ -8869,7 +8871,7 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B83">
         <v>2722853</v>
@@ -8970,7 +8972,7 @@
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43040</v>
+        <v>43069</v>
       </c>
       <c r="B84">
         <v>2620684</v>
@@ -9071,7 +9073,7 @@
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43070</v>
+        <v>43100</v>
       </c>
       <c r="B85">
         <v>1656333</v>
@@ -9172,7 +9174,7 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B86" s="3">
         <v>873888</v>
@@ -9273,7 +9275,7 @@
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43132</v>
+        <v>43159</v>
       </c>
       <c r="B87" s="3">
         <v>862523</v>
@@ -9374,7 +9376,7 @@
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43160</v>
+        <v>43190</v>
       </c>
       <c r="B88" s="3">
         <v>1389101</v>
@@ -9475,7 +9477,7 @@
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B89" s="3">
         <v>2246964</v>
@@ -9576,7 +9578,7 @@
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43221</v>
+        <v>43251</v>
       </c>
       <c r="B90" s="3">
         <v>2340518</v>
@@ -9677,7 +9679,7 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43252</v>
+        <v>43281</v>
       </c>
       <c r="B91" s="4">
         <v>1798207</v>
@@ -9778,7 +9780,7 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B92" s="3">
         <v>1441543</v>
@@ -9879,7 +9881,7 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43313</v>
+        <v>43343</v>
       </c>
       <c r="B93" s="3">
         <v>1458499</v>
@@ -9980,7 +9982,7 @@
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="B94" s="3">
         <v>1495691</v>
@@ -10081,7 +10083,7 @@
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B95" s="3">
         <v>1920051</v>
